--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1273989.406308581</v>
+        <v>1269976.796294588</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>66.25196157017365</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.817218682477</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609184</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>223.2288268649554</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>37.67709528776619</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>248.2911806484857</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>171.0483567097093</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>106.4873960862275</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>129.2940449386022</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222583</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>115.8744443146307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>84.49467133069749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386283</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>113.6427030833212</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>69.82863813027316</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174149</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756248</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>185.4048731212367</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>212.4076860934775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.25628701154714</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>176.7621441121407</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>137.9792024346629</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>206.7582264966179</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>132.3950627812467</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>25.73194049497363</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>100.0416311957217</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1944.904841306683</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C2" t="n">
-        <v>1575.942324366272</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3052.706900690187</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V2" t="n">
-        <v>2721.644013346617</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W2" t="n">
-        <v>2721.644013346617</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X2" t="n">
-        <v>2721.644013346617</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y2" t="n">
-        <v>2331.504681370805</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143256</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>695.4033423182299</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>440.718854112343</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>440.718854112343</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>212.7293032143256</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.7293032143256</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2303.170539913434</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1156.082344952774</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>770.29409235453</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>359.3081875649224</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3042.53903524767</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3042.53903524767</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>3042.53903524767</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2689.770379977556</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2689.770379977556</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>2689.770379977556</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,22 +4664,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>479.6639240396553</v>
+        <v>472.1048757766371</v>
       </c>
       <c r="C7" t="n">
-        <v>310.7277411117484</v>
+        <v>472.1048757766371</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>321.9882363643013</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>174.0751427819082</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>700.4565031831854</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>700.4565031831854</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>700.4565031831854</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>700.4565031831854</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="Y7" t="n">
-        <v>479.6639240396553</v>
+        <v>472.1048757766371</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1491.56934869447</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1122.606831754059</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>764.3411331473083</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>378.552880549064</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678283</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2994.542934265598</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2641.774278995484</v>
       </c>
       <c r="X8" t="n">
-        <v>2065.221161406442</v>
+        <v>2268.308520734404</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>1878.169188758592</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,7 +4898,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>234.2149530574645</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>234.2149530574645</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574645</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U10" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V10" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W10" t="n">
-        <v>643.8529687857215</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X10" t="n">
-        <v>415.8634178877041</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y10" t="n">
-        <v>415.8634178877041</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,28 +5059,28 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5626541092259</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249848</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459591</v>
+        <v>945.4026036630049</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180522</v>
+        <v>776.466420735098</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>626.3497813227623</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>478.4366877403692</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>331.5467402424588</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>164.3506409573387</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919729</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761988</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5272,22 +5272,22 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5299,22 +5299,22 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.385853854707</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5545,10 +5545,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797189</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3173.601046153953</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3173.601046153953</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3173.601046153953</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,55 +5983,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2757.723669558406</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>2588.787486630499</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>2438.670847218163</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>2337.686731866305</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.25592267304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467153</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430193</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,52 +6214,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487568</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4517.069482196493</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,46 +6694,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4551.460220646409</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4262.384993990607</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
         <v>631.7012443408906</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7265,16 +7265,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>923.4916164683283</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>754.5554335404214</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>604.4387941280856</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>456.5257005456925</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>309.6357530477821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>309.6357530477821</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2420.971224494428</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2238.116390149333</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2018.514925172274</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.7772127656159</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2345.91093085731</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2126.309465880251</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2126.309465880251</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1871.624977674364</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.97276993489113</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>70.4660747159507</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.0033420516635</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40.30478226780045</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>13.30196929555964</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>151.1491633157411</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>75.37549921168727</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>79.42624789262538</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>79.42624789262624</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>7.899650064977237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>40.64330621514806</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>80.98465480592293</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185698</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185699</v>
-      </c>
       <c r="E2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="F2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="K2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="K2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140038</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073561</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405265</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239072</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1037650.368474469</v>
+        <v>-1037650.368474468</v>
       </c>
       <c r="C6" t="n">
-        <v>291094.377253124</v>
+        <v>291094.3772531241</v>
       </c>
       <c r="D6" t="n">
-        <v>291094.3772531239</v>
+        <v>291094.3772531241</v>
       </c>
       <c r="E6" t="n">
-        <v>42926.27214087351</v>
+        <v>42578.89288651613</v>
       </c>
       <c r="F6" t="n">
-        <v>368338.7339482291</v>
+        <v>367991.3546938722</v>
       </c>
       <c r="G6" t="n">
-        <v>368338.7339482294</v>
+        <v>367991.3546938723</v>
       </c>
       <c r="H6" t="n">
-        <v>368338.7339482293</v>
+        <v>367991.3546938722</v>
       </c>
       <c r="I6" t="n">
-        <v>368338.7339482292</v>
+        <v>367991.3546938724</v>
       </c>
       <c r="J6" t="n">
-        <v>150807.5315509516</v>
+        <v>150460.1522965948</v>
       </c>
       <c r="K6" t="n">
-        <v>368338.7339482292</v>
+        <v>367991.3546938721</v>
       </c>
       <c r="L6" t="n">
-        <v>368338.7339482293</v>
+        <v>367991.3546938722</v>
       </c>
       <c r="M6" t="n">
-        <v>283283.7060127172</v>
+        <v>282936.3267583601</v>
       </c>
       <c r="N6" t="n">
-        <v>368338.7339482292</v>
+        <v>367991.3546938722</v>
       </c>
       <c r="O6" t="n">
-        <v>368338.733948229</v>
+        <v>367991.3546938721</v>
       </c>
       <c r="P6" t="n">
-        <v>368338.7339482289</v>
+        <v>367991.3546938723</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,19 +26807,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483764</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>184.7432103887283</v>
+        <v>82.8793596908057</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27520,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>62.98301134065744</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>188.032560101271</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>162.6305450049678</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>32.8696134299108</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>38.93365193670371</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>156.9177932670107</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194531</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>253.8566563638383</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>202.0283270058935</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.302797828232</v>
       </c>
     </row>
     <row r="11">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837919</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970261</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093077</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473074</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>248.7449369209182</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496626</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,31 +32311,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004586</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525818</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134948685</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674332</v>
@@ -35500,16 +35500,16 @@
         <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>110.1905571410441</v>
       </c>
       <c r="M15" t="n">
         <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663293</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37156,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0482712280113</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1269976.796294588</v>
+        <v>1271737.326597373</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>271.2903285220033</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>168.1158122680963</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -797,10 +797,10 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494239</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609184</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>37.67709528776619</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>148.4348925031067</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>248.2911806484857</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>36.34690181272098</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>106.4873960862275</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222583</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>78.78083674902027</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>69.82863813027316</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>43.55707494718542</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756248</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>50.06209150957563</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>141.4641157700688</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>66.25628701154714</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>35.23631477519695</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>63.1628130171261</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>68.41584059195273</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810543</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4357,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3155.791869823214</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>3155.791869823214</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>3155.791869823214</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X2" t="n">
-        <v>2782.326111562134</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y2" t="n">
-        <v>2392.186779586323</v>
+        <v>2619.198073544675</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.1808689801002</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521933</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398575</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
         <v>66.5121164321834</v>
@@ -4518,22 +4518,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="X4" t="n">
-        <v>882.8293338103399</v>
+        <v>216.4463512838064</v>
       </c>
       <c r="Y4" t="n">
-        <v>882.8293338103399</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514.348043559525</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1514.348043559525</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1156.082344952774</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>770.29409235453</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>359.3081875649224</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559525</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>472.1048757766371</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C7" t="n">
-        <v>472.1048757766371</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D7" t="n">
-        <v>321.9882363643013</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="E7" t="n">
-        <v>174.0751427819082</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>692.8974549201672</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>472.1048757766371</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.56934869447</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754059</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473083</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>378.552880549064</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678283</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218338</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609169</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609169</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265598</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995484</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734404</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758592</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4871,46 +4871,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218338</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181842</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181842</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181842</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181842</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181842</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,19 +5053,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>945.4026036630049</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>776.466420735098</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>626.3497813227623</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>478.4366877403692</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>331.5467402424588</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>164.3506409573387</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,28 +5503,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,22 +5533,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>286.0962634073653</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>990.5373202159259</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="26">
@@ -6220,46 +6220,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,16 +6317,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
         <v>407.9027098310023</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6715,25 +6715,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6840,22 +6840,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7028,16 +7028,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7402,37 +7402,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>70.4660747159507</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>102.8768876993838</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516635</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>115.4620467826932</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>25.78270532855902</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>151.1491633157411</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>104.0840080815017</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>218.1071577446383</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>75.37549921168767</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>942247.3008387904</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>942247.3008387904</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>942247.3008387904</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>942247.3008387904</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>942247.3008387904</v>
+        <v>942247.3008387906</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>942247.3008387904</v>
+        <v>942247.3008387906</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140037</v>
@@ -26343,19 +26343,19 @@
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073561</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405262</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405265</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1037650.368474468</v>
       </c>
       <c r="C6" t="n">
-        <v>291094.3772531241</v>
+        <v>291094.3772531237</v>
       </c>
       <c r="D6" t="n">
-        <v>291094.3772531241</v>
+        <v>291094.377253124</v>
       </c>
       <c r="E6" t="n">
-        <v>42578.89288651613</v>
+        <v>42891.53421543821</v>
       </c>
       <c r="F6" t="n">
-        <v>367991.3546938722</v>
+        <v>368303.9960227934</v>
       </c>
       <c r="G6" t="n">
-        <v>367991.3546938723</v>
+        <v>368303.9960227935</v>
       </c>
       <c r="H6" t="n">
-        <v>367991.3546938722</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="I6" t="n">
-        <v>367991.3546938724</v>
+        <v>368303.9960227935</v>
       </c>
       <c r="J6" t="n">
-        <v>150460.1522965948</v>
+        <v>150772.793625516</v>
       </c>
       <c r="K6" t="n">
-        <v>367991.3546938721</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="L6" t="n">
-        <v>367991.3546938722</v>
+        <v>368303.9960227934</v>
       </c>
       <c r="M6" t="n">
-        <v>282936.3267583601</v>
+        <v>283248.9680872815</v>
       </c>
       <c r="N6" t="n">
-        <v>367991.3546938722</v>
+        <v>368303.9960227934</v>
       </c>
       <c r="O6" t="n">
-        <v>367991.3546938721</v>
+        <v>368303.9960227934</v>
       </c>
       <c r="P6" t="n">
-        <v>367991.3546938723</v>
+        <v>368303.9960227934</v>
       </c>
     </row>
   </sheetData>
@@ -26792,19 +26792,19 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483764</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>111.4435131414773</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>82.8793596908057</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27517,10 +27517,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27590,22 +27590,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>188.032560101271</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>70.14976084898805</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>162.6305450049678</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.8910368433326</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93365193670371</v>
+        <v>13.86883518166218</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194531</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>270.4601319683927</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>16.84412522327474</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.302797828232</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970261</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209182</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525818</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410441</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
